--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999516.779225599</v>
+        <v>3995504.169211607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7178038.596209639</v>
+        <v>7178038.596209637</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>61.29257748216965</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>122.0083258232801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>84.78512906876112</v>
+        <v>58.25987342206865</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.00046772082154</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.26879610204004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>302.5334423830815</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>61.63936884538521</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>134.0389899623033</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>68.59371373186974</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444158</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.043911798778085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>140.1230996349842</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>213.5346866527486</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>2.60701007315258</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.9742079424038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881299</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>77.73359659137272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695625</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>48.4745767553171</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>36.74735985928083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.294096136280567</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670958</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>105.7906564314215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.4343500806758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1151.298377994912</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>782.3358610545008</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2301.503308295926</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.037550034846</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.898218059034</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686063</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.071687106474</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080119</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.4793381277382</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="C4" t="n">
-        <v>249.4793381277382</v>
+        <v>737.9829905420922</v>
       </c>
       <c r="D4" t="n">
-        <v>249.4793381277382</v>
+        <v>587.8663511297565</v>
       </c>
       <c r="E4" t="n">
-        <v>249.4793381277382</v>
+        <v>439.9532575473634</v>
       </c>
       <c r="F4" t="n">
-        <v>249.4793381277382</v>
+        <v>293.063310049453</v>
       </c>
       <c r="G4" t="n">
-        <v>249.4793381277382</v>
+        <v>125.3604734241719</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4521,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579779</v>
+        <v>906.9191734699991</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4570,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2999.235922974203</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2668.173035630633</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2315.404380360518</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.938622099438</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.8553933260938</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.982617026599</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>1485.020100086188</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D8" t="n">
-        <v>1126.754401479437</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E8" t="n">
-        <v>1126.754401479437</v>
+        <v>177.7165046746305</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>170.771003925427</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066533</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066533</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2240.582457090721</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4880,13 +4880,13 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158137</v>
@@ -4895,40 +4895,40 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.3613929424835</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145766</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>496.7080766663286</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>348.7949830839354</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>201.9050355860251</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1858.007968561352</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1666.322084388179</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1444.555468957705</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1155.452602083348</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>900.7681138774615</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W10" t="n">
-        <v>611.3509438405008</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X10" t="n">
-        <v>383.3613929424835</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.3613929424835</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2445.908627217859</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.053792872764</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.452327895704</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.377101239902</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.692613034015</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.275442997055</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>982.2858920990373</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>776.466420735098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227623</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>626.3497813227623</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.8463580632</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694709</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385793</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385793</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557013</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.838905772772</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399324</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>4285.815356953931</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797191</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.516248701935</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>550.921708803229</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,40 +7405,40 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474785</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7563,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406112</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.33133491134356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.297948387947002</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.64978773649551</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.0084629450598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.610445409691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>70.88187642683964</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.1408962628953</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>130.499461239347</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>145.1398665102886</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>146.3469868924065</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.15030327141895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
@@ -26337,25 +26337,25 @@
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972779</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027078e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319394</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184262</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,22 +26441,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184266</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26493,10 +26493,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>620313.9864196959</v>
       </c>
       <c r="D6" t="n">
-        <v>620313.9864196952</v>
+        <v>620313.9864196955</v>
       </c>
       <c r="E6" t="n">
-        <v>367004.7999469011</v>
+        <v>366657.4206925441</v>
       </c>
       <c r="F6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998998</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998991</v>
       </c>
       <c r="H6" t="n">
-        <v>692417.2617542563</v>
+        <v>692069.8824998994</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998994</v>
       </c>
       <c r="J6" t="n">
-        <v>474886.0593569785</v>
+        <v>474538.6801026211</v>
       </c>
       <c r="K6" t="n">
-        <v>692417.261754256</v>
+        <v>692069.8824998992</v>
       </c>
       <c r="L6" t="n">
-        <v>692417.2617542563</v>
+        <v>692069.8824998996</v>
       </c>
       <c r="M6" t="n">
-        <v>607362.2338187444</v>
+        <v>607014.8545643876</v>
       </c>
       <c r="N6" t="n">
-        <v>692417.2617542563</v>
+        <v>692069.8824998992</v>
       </c>
       <c r="O6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998995</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998994</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>227.2326428941329</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.96988584555966</v>
+        <v>86.49514149225213</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>240.9947042380804</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.5631840798973</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.34260335863</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>349.2823568080682</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>31.98681829672495</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.33843893817755</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.012707159510494e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.602855171198873e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.121955025484504e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.641133868265976e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.056194106704082e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400291</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.192057627921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,37 +33022,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0872899694763</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067235</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,25 +33973,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>338.6542681503479</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,34 +34444,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859608</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059027</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>249.9438064495983</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4910455250318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312436</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>196.0580237059035</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3995504.169211607</v>
+        <v>3997264.699514393</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>61.29257748216965</v>
+        <v>61.292577482171</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>58.25987342206865</v>
+        <v>58.25987342206862</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>148.0280580960833</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881299</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189108</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428253</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670958</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>971.2814123723965</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E2" t="n">
-        <v>585.4931597741522</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4482,10 +4482,10 @@
         <v>125.3604734241719</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5020,10 +5020,10 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5041,28 +5041,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615996</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474783</v>
@@ -5317,13 +5317,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708873</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.395944601127</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706077</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427008</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.8463580632</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
         <v>2243.991523718104</v>
@@ -6417,19 +6417,19 @@
         <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085243</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879356</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
         <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443776</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008474</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,46 +7095,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
         <v>974.1018203925706</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,7 +7256,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,28 +7332,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2437.724555511392</v>
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7484,13 +7484,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468473</v>
@@ -7548,25 +7548,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,7 +7593,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2254.869721166297</v>
@@ -7645,31 +7645,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908938</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823057</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194133</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194134</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194126</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="6">
@@ -26316,40 +26316,40 @@
         <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,22 +26441,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184266</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26493,10 +26493,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708430.7593078968</v>
+        <v>-708430.7593078967</v>
       </c>
       <c r="C6" t="n">
-        <v>620313.9864196959</v>
+        <v>620313.9864196961</v>
       </c>
       <c r="D6" t="n">
         <v>620313.9864196955</v>
       </c>
       <c r="E6" t="n">
-        <v>366657.4206925441</v>
+        <v>366970.062021466</v>
       </c>
       <c r="F6" t="n">
-        <v>692069.8824998998</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="G6" t="n">
-        <v>692069.8824998991</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="H6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="I6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="J6" t="n">
-        <v>474538.6801026211</v>
+        <v>474851.3214315432</v>
       </c>
       <c r="K6" t="n">
-        <v>692069.8824998992</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="L6" t="n">
-        <v>692069.8824998996</v>
+        <v>692382.5238288206</v>
       </c>
       <c r="M6" t="n">
-        <v>607014.8545643876</v>
+        <v>607327.4958933087</v>
       </c>
       <c r="N6" t="n">
-        <v>692069.8824998992</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="O6" t="n">
-        <v>692069.8824998995</v>
+        <v>692382.5238288204</v>
       </c>
       <c r="P6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288207</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,22 +26983,22 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>345.5834682595418</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>86.49514149225213</v>
+        <v>86.49514149225216</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -28092,13 +28092,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.012707159510494e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.440237015042055e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.056194106704082e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663281</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J20" t="n">
         <v>285.7087110396419</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
